--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101677.1837947374</v>
+        <v>92374.53411445189</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24133107.80538714</v>
+        <v>24074826.29634326</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12890725.5960517</v>
+        <v>12463046.56750465</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4652276.842362677</v>
+        <v>4858212.721871004</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="D11" t="n">
-        <v>66.89487755631824</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.9478628023595</v>
+        <v>193.3854158231839</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>52.56983021752367</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>75.9478628023595</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>66.89487755631825</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>75.9478628023595</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19.72327283162436</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.9478628023595</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V13" t="n">
-        <v>66.89487755631824</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G14" t="n">
-        <v>66.89487755631816</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.94786280235941</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.94786280235941</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>75.94786280235941</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>66.89487755631816</v>
+        <v>138.4789235665209</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.94786280235941</v>
+        <v>28.43101734972018</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94786280235941</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="U16" t="n">
-        <v>75.94786280235941</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.89487755631816</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.27237541890711</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>283.9738944557603</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>221.905733377174</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H18" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T18" t="n">
         <v>152.7312370348056</v>
@@ -1988,7 +1988,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424967</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2007,10 +2007,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>47.83659092245248</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>71.08919059979252</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2022,7 +2022,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S19" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>85.0395830775111</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U20" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>326.5366970805879</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>83.78946074098197</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T21" t="n">
         <v>152.7312370348056</v>
@@ -2244,13 +2244,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>49.40815116488504</v>
       </c>
       <c r="G22" t="n">
         <v>164.5343322142292</v>
@@ -2259,7 +2259,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I22" t="n">
-        <v>83.80004204681615</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T22" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.3324490447366</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>379.3375878590442</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>180.5506508622469</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>283.9738944557603</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>109.3274567456293</v>
       </c>
       <c r="H25" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.48888118371698</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>186.3751521369511</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>383.0463581217713</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77464311830144</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>33.25088754045735</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>341.4398179098184</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>273.3969225842966</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T30" t="n">
-        <v>152.7312370348056</v>
+        <v>152.7312370348055</v>
       </c>
       <c r="U30" t="n">
         <v>195.2954114342289</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.39854750756395</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>52.81165100223334</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
@@ -3009,7 +3009,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>49.2681558485651</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>184.5946477042953</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>31.37038923951212</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
@@ -3246,10 +3246,10 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>195.1149707510867</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3280,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>70.53404966879658</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.86392789620386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098128</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>122.5212623115385</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.77556708756201</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
         <v>279.9132448002744</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>267.9105448638997</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3514,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>115.0373362329322</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>19.63648213978259</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>234.9259150985359</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>369.6174712327682</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.4146878957041</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193193</v>
       </c>
       <c r="G42" t="n">
         <v>104.6754635109996</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>17.70392804449432</v>
       </c>
       <c r="E43" t="n">
-        <v>1.791798529283573</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>88.09383174830313</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>146.6371651753032</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>114.6388989709888</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5343322142292</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>116.0964337845576</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.3614253460855</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C11" t="n">
-        <v>73.64641241440921</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="D11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I11" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747906</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418877</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020698</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211125</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655149</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294159</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038204</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R11" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S11" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T11" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="U11" t="n">
-        <v>303.791451209438</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="V11" t="n">
-        <v>303.791451209438</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="W11" t="n">
-        <v>303.791451209438</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="X11" t="n">
-        <v>303.791451209438</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="Y11" t="n">
-        <v>227.0764382777617</v>
+        <v>461.1131255556978</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.07582902418876</v>
+        <v>310.8993403270399</v>
       </c>
       <c r="C12" t="n">
-        <v>6.07582902418876</v>
+        <v>176.9042690759856</v>
       </c>
       <c r="D12" t="n">
-        <v>6.07582902418876</v>
+        <v>176.9042690759856</v>
       </c>
       <c r="E12" t="n">
-        <v>6.07582902418876</v>
+        <v>176.9042690759856</v>
       </c>
       <c r="F12" t="n">
-        <v>6.07582902418876</v>
+        <v>176.9042690759856</v>
       </c>
       <c r="G12" t="n">
-        <v>6.07582902418876</v>
+        <v>70.66536320148697</v>
       </c>
       <c r="H12" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I12" t="n">
-        <v>6.07582902418876</v>
+        <v>22.57805692180547</v>
       </c>
       <c r="J12" t="n">
-        <v>6.07582902418876</v>
+        <v>41.28272619165517</v>
       </c>
       <c r="K12" t="n">
-        <v>27.1893464519481</v>
+        <v>104.9046892233109</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129227</v>
+        <v>209.2128991251059</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011798</v>
+        <v>342.8597788025052</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956372</v>
+        <v>560.2207707018604</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282919</v>
+        <v>678.2212654349596</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741908</v>
+        <v>765.0971737371244</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.791451209438</v>
+        <v>802.9541431881225</v>
       </c>
       <c r="R12" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S12" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T12" t="n">
-        <v>227.0764382777617</v>
+        <v>721.912256695053</v>
       </c>
       <c r="U12" t="n">
-        <v>159.5058548875413</v>
+        <v>524.6108673340061</v>
       </c>
       <c r="V12" t="n">
-        <v>82.79084195586502</v>
+        <v>310.8993403270399</v>
       </c>
       <c r="W12" t="n">
-        <v>6.07582902418876</v>
+        <v>310.8993403270399</v>
       </c>
       <c r="X12" t="n">
-        <v>6.07582902418876</v>
+        <v>310.8993403270399</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.07582902418876</v>
+        <v>310.8993403270399</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.07582902418876</v>
+        <v>37.48702240764928</v>
       </c>
       <c r="C13" t="n">
-        <v>6.07582902418876</v>
+        <v>37.48702240764928</v>
       </c>
       <c r="D13" t="n">
-        <v>6.07582902418876</v>
+        <v>37.48702240764928</v>
       </c>
       <c r="E13" t="n">
-        <v>6.07582902418876</v>
+        <v>37.48702240764928</v>
       </c>
       <c r="F13" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G13" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H13" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I13" t="n">
-        <v>6.07582902418876</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J13" t="n">
-        <v>48.19497630457663</v>
+        <v>75.28691789969612</v>
       </c>
       <c r="K13" t="n">
-        <v>123.3833604789125</v>
+        <v>292.6479097990514</v>
       </c>
       <c r="L13" t="n">
-        <v>128.2585980324559</v>
+        <v>330.3347052069934</v>
       </c>
       <c r="M13" t="n">
-        <v>153.4146828607662</v>
+        <v>371.3897515067832</v>
       </c>
       <c r="N13" t="n">
-        <v>228.6030670351021</v>
+        <v>511.9187489500386</v>
       </c>
       <c r="O13" t="n">
-        <v>303.791451209438</v>
+        <v>543.6506192616147</v>
       </c>
       <c r="P13" t="n">
-        <v>303.791451209438</v>
+        <v>761.0116111609699</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R13" t="n">
-        <v>303.791451209438</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S13" t="n">
-        <v>227.0764382777617</v>
+        <v>702.8099238443044</v>
       </c>
       <c r="T13" t="n">
-        <v>150.3614253460855</v>
+        <v>702.8099238443044</v>
       </c>
       <c r="U13" t="n">
-        <v>73.64641241440921</v>
+        <v>481.0356233654194</v>
       </c>
       <c r="V13" t="n">
-        <v>6.07582902418876</v>
+        <v>259.2613228865343</v>
       </c>
       <c r="W13" t="n">
-        <v>6.07582902418876</v>
+        <v>259.2613228865343</v>
       </c>
       <c r="X13" t="n">
-        <v>6.07582902418876</v>
+        <v>259.2613228865343</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.07582902418876</v>
+        <v>37.48702240764928</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150.3614253460853</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="C14" t="n">
-        <v>150.3614253460853</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="D14" t="n">
-        <v>73.64641241440913</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="E14" t="n">
-        <v>73.64641241440913</v>
+        <v>461.1131255556977</v>
       </c>
       <c r="F14" t="n">
-        <v>73.64641241440913</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="G14" t="n">
-        <v>6.075829024188753</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="H14" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I14" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747792</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418854</v>
+        <v>148.5608200474253</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020675</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211122</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655146</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294155</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038201</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S14" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="T14" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="U14" t="n">
-        <v>227.0764382777615</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="V14" t="n">
-        <v>227.0764382777615</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="W14" t="n">
-        <v>150.3614253460853</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="X14" t="n">
-        <v>150.3614253460853</v>
+        <v>682.8874260345827</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.3614253460853</v>
+        <v>682.8874260345827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.5058548875411</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="C15" t="n">
-        <v>82.79084195586492</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="D15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I15" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J15" t="n">
-        <v>6.075829024188753</v>
+        <v>123.9013828858377</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194804</v>
+        <v>187.5233459174934</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129221</v>
+        <v>291.8315558192883</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011797</v>
+        <v>421.3938484840346</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956371</v>
+        <v>560.2207707018604</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282917</v>
+        <v>678.2212654349596</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741905</v>
+        <v>765.0971737371243</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094376</v>
+        <v>802.9541431881224</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S15" t="n">
-        <v>303.7914512094376</v>
+        <v>784.1895570513683</v>
       </c>
       <c r="T15" t="n">
-        <v>303.7914512094376</v>
+        <v>627.8755838500365</v>
       </c>
       <c r="U15" t="n">
-        <v>303.7914512094376</v>
+        <v>627.8755838500365</v>
       </c>
       <c r="V15" t="n">
-        <v>236.2208678192173</v>
+        <v>487.9978832777932</v>
       </c>
       <c r="W15" t="n">
-        <v>236.2208678192173</v>
+        <v>274.7647150141219</v>
       </c>
       <c r="X15" t="n">
-        <v>236.2208678192173</v>
+        <v>274.7647150141219</v>
       </c>
       <c r="Y15" t="n">
-        <v>236.2208678192173</v>
+        <v>274.7647150141219</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="C16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="D16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="E16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="F16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G16" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H16" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I16" t="n">
-        <v>6.075829024188753</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J16" t="n">
-        <v>48.19497630457661</v>
+        <v>75.28691789969611</v>
       </c>
       <c r="K16" t="n">
-        <v>123.3833604789124</v>
+        <v>156.724588478801</v>
       </c>
       <c r="L16" t="n">
-        <v>128.2585980324558</v>
+        <v>194.4113838867429</v>
       </c>
       <c r="M16" t="n">
-        <v>203.4469822067916</v>
+        <v>411.7723757860981</v>
       </c>
       <c r="N16" t="n">
-        <v>278.6353663811274</v>
+        <v>629.1333676854533</v>
       </c>
       <c r="O16" t="n">
-        <v>303.7914512094376</v>
+        <v>660.8652379970293</v>
       </c>
       <c r="P16" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R16" t="n">
-        <v>303.7914512094376</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S16" t="n">
-        <v>227.0764382777615</v>
+        <v>849.5080305532329</v>
       </c>
       <c r="T16" t="n">
-        <v>150.3614253460853</v>
+        <v>627.7337300743478</v>
       </c>
       <c r="U16" t="n">
-        <v>73.64641241440913</v>
+        <v>627.7337300743478</v>
       </c>
       <c r="V16" t="n">
-        <v>6.075829024188753</v>
+        <v>627.7337300743478</v>
       </c>
       <c r="W16" t="n">
-        <v>6.075829024188753</v>
+        <v>405.9594295954628</v>
       </c>
       <c r="X16" t="n">
-        <v>6.075829024188753</v>
+        <v>405.9594295954628</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.075829024188753</v>
+        <v>184.1851291165778</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2024.321847303436</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="C17" t="n">
-        <v>1973.541670112621</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.077740205682</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E17" t="n">
-        <v>1154.737524722578</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F17" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G17" t="n">
         <v>327.3287545781499</v>
       </c>
       <c r="H17" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I17" t="n">
-        <v>44.64574590746556</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J17" t="n">
         <v>167.5334271492899</v>
       </c>
       <c r="K17" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L17" t="n">
-        <v>641.1850750879079</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M17" t="n">
-        <v>953.2429319501308</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N17" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O17" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P17" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q17" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R17" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U17" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V17" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W17" t="n">
-        <v>2024.321847303436</v>
+        <v>952.1193578406862</v>
       </c>
       <c r="X17" t="n">
-        <v>2024.321847303436</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="Y17" t="n">
-        <v>2024.321847303436</v>
+        <v>327.3287545781499</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C18" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D18" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E18" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F18" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G18" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H18" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I18" t="n">
-        <v>43.01083102505507</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J18" t="n">
-        <v>120.7897542567106</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K18" t="n">
-        <v>264.5117467880021</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L18" t="n">
-        <v>476.5243313096595</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M18" t="n">
-        <v>731.7725490686275</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N18" t="n">
-        <v>999.6119288277768</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O18" t="n">
-        <v>1235.633617581756</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P18" t="n">
-        <v>1417.231939017939</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q18" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R18" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S18" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T18" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U18" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V18" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W18" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X18" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y18" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>891.8734186802494</v>
+        <v>998.5912297652105</v>
       </c>
       <c r="C19" t="n">
-        <v>720.7800462419659</v>
+        <v>827.497857326927</v>
       </c>
       <c r="D19" t="n">
-        <v>672.4602574314079</v>
+        <v>668.003212649837</v>
       </c>
       <c r="E19" t="n">
-        <v>511.5494422997273</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9183164103185</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7220212444305</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H19" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I19" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J19" t="n">
-        <v>62.60916429909252</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K19" t="n">
-        <v>337.1911823108422</v>
+        <v>303.6723642289236</v>
       </c>
       <c r="L19" t="n">
-        <v>750.6849613854782</v>
+        <v>717.1661433035596</v>
       </c>
       <c r="M19" t="n">
-        <v>1201.895179771359</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.145037964105</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O19" t="n">
-        <v>1541.657620062866</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P19" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q19" t="n">
         <v>2024.321847303436</v>
@@ -5700,25 +5700,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S19" t="n">
-        <v>1818.423362863342</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T19" t="n">
-        <v>1583.378488176655</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="U19" t="n">
-        <v>1583.378488176655</v>
+        <v>1703.704462790697</v>
       </c>
       <c r="V19" t="n">
-        <v>1583.378488176655</v>
+        <v>1703.704462790697</v>
       </c>
       <c r="W19" t="n">
-        <v>1304.308823685529</v>
+        <v>1424.634798299571</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.308823685529</v>
+        <v>1186.290936159255</v>
       </c>
       <c r="Y19" t="n">
-        <v>1079.573125074294</v>
+        <v>1186.290936159255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1271.329601214018</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="C20" t="n">
-        <v>861.2050105272881</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D20" t="n">
-        <v>861.2050105272881</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E20" t="n">
-        <v>446.8647950441848</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G20" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H20" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I20" t="n">
-        <v>44.6457459074652</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J20" t="n">
-        <v>167.5334271492894</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K20" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L20" t="n">
-        <v>641.1850750879073</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M20" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N20" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O20" t="n">
         <v>1568.017893256777</v>
@@ -5782,22 +5782,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T20" t="n">
-        <v>1938.423278538273</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U20" t="n">
-        <v>1681.550780878508</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V20" t="n">
-        <v>1681.550780878508</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W20" t="n">
-        <v>1681.550780878508</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="X20" t="n">
-        <v>1681.550780878508</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="Y20" t="n">
-        <v>1681.550780878508</v>
+        <v>875.8570644754845</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C21" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D21" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E21" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F21" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G21" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H21" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I21" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J21" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K21" t="n">
-        <v>609.6003212978078</v>
+        <v>752.3247263384933</v>
       </c>
       <c r="L21" t="n">
-        <v>821.6129058194651</v>
+        <v>964.3373108601505</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.585528619118</v>
+        <v>1219.585528619119</v>
       </c>
       <c r="N21" t="n">
-        <v>1487.424908378267</v>
+        <v>1487.424908378268</v>
       </c>
       <c r="O21" t="n">
         <v>1723.446597132247</v>
@@ -5861,7 +5861,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T21" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U21" t="n">
         <v>1588.14395921251</v>
@@ -5873,10 +5873,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X21" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y21" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.694781664777</v>
+        <v>652.5654193654719</v>
       </c>
       <c r="C22" t="n">
-        <v>916.6014092264938</v>
+        <v>481.4720469271884</v>
       </c>
       <c r="D22" t="n">
-        <v>757.1067645494038</v>
+        <v>481.4720469271884</v>
       </c>
       <c r="E22" t="n">
-        <v>596.1959494177233</v>
+        <v>481.4720469271884</v>
       </c>
       <c r="F22" t="n">
         <v>431.5648235283147</v>
@@ -5907,55 +5907,55 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I22" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J22" t="n">
-        <v>109.0965795970512</v>
+        <v>62.60916429909251</v>
       </c>
       <c r="K22" t="n">
-        <v>177.3984040230867</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L22" t="n">
-        <v>590.8921830977228</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M22" t="n">
-        <v>697.1360519693178</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N22" t="n">
-        <v>1136.070278545364</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O22" t="n">
-        <v>1541.657620062866</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P22" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q22" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S22" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T22" t="n">
-        <v>1751.400239417419</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U22" t="n">
-        <v>1468.65958810401</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="V22" t="n">
-        <v>1468.65958810401</v>
+        <v>1582.414351002194</v>
       </c>
       <c r="W22" t="n">
-        <v>1468.65958810401</v>
+        <v>1303.344686511068</v>
       </c>
       <c r="X22" t="n">
-        <v>1468.65958810401</v>
+        <v>1065.000824370752</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.394488058822</v>
+        <v>840.2651257595163</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1730.670028080286</v>
+        <v>1541.653037976893</v>
       </c>
       <c r="C23" t="n">
-        <v>1320.545437393556</v>
+        <v>1131.528447290164</v>
       </c>
       <c r="D23" t="n">
-        <v>916.0815074866164</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="E23" t="n">
-        <v>916.0815074866164</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="F23" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G23" t="n">
         <v>327.3287545781499</v>
@@ -5986,16 +5986,16 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746558</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492899</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879079</v>
       </c>
       <c r="M23" t="n">
         <v>953.2429319501309</v>
@@ -6007,7 +6007,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q23" t="n">
         <v>1966.084838463273</v>
@@ -6019,22 +6019,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="Y23" t="n">
-        <v>1730.670028080286</v>
+        <v>1541.653037976893</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J24" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>252.3026566214989</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L24" t="n">
-        <v>464.3152411431562</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M24" t="n">
-        <v>954.5875601654975</v>
+        <v>982.7996667264551</v>
       </c>
       <c r="N24" t="n">
-        <v>1222.426939924647</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132247</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.694781664777</v>
+        <v>776.1903814331444</v>
       </c>
       <c r="C25" t="n">
-        <v>916.6014092264938</v>
+        <v>776.1903814331444</v>
       </c>
       <c r="D25" t="n">
-        <v>757.1067645494038</v>
+        <v>616.6957367560544</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>455.7849216243739</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>291.1537957349652</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>303.672364228924</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L25" t="n">
-        <v>717.16614330356</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M25" t="n">
-        <v>823.4100121751551</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N25" t="n">
-        <v>1262.344238751201</v>
+        <v>1705.830769978742</v>
       </c>
       <c r="O25" t="n">
-        <v>1667.931580268703</v>
+        <v>1796.343352077503</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1621.255221375985</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U25" t="n">
-        <v>1338.514570062576</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V25" t="n">
-        <v>1338.514570062576</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.514570062576</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X25" t="n">
-        <v>1338.514570062576</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.394488058822</v>
+        <v>963.8900878271887</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1541.653037976893</v>
+        <v>444.9503668530082</v>
       </c>
       <c r="C26" t="n">
-        <v>1541.653037976893</v>
+        <v>444.9503668530082</v>
       </c>
       <c r="D26" t="n">
-        <v>1541.653037976893</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E26" t="n">
-        <v>1154.737524722578</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879076</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T26" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U26" t="n">
-        <v>1942.589711028803</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V26" t="n">
-        <v>1942.589711028803</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W26" t="n">
-        <v>1942.589711028803</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="X26" t="n">
-        <v>1942.589711028803</v>
+        <v>633.208096284272</v>
       </c>
       <c r="Y26" t="n">
-        <v>1541.653037976893</v>
+        <v>633.208096284272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J27" t="n">
-        <v>128.1484679399048</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K27" t="n">
-        <v>271.8704604711963</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8830449928536</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M27" t="n">
-        <v>739.1312627518217</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N27" t="n">
-        <v>1006.970642510971</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O27" t="n">
-        <v>1242.992331264951</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P27" t="n">
-        <v>1424.590652701133</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q27" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5822179040626</v>
+        <v>787.9645526893257</v>
       </c>
       <c r="C28" t="n">
-        <v>591.4888454657791</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="D28" t="n">
-        <v>431.9942007886892</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="E28" t="n">
-        <v>345.3531471338392</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F28" t="n">
-        <v>180.7220212444305</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7220212444305</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H28" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108422</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854782</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M28" t="n">
-        <v>1201.895179771359</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N28" t="n">
-        <v>1640.829406347405</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O28" t="n">
-        <v>1731.341988446166</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P28" t="n">
         <v>1998.558115949587</v>
@@ -6408,28 +6408,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.321847303436</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="U28" t="n">
-        <v>1741.581195990027</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="V28" t="n">
-        <v>1467.695450929549</v>
+        <v>1717.813484326048</v>
       </c>
       <c r="W28" t="n">
-        <v>1188.625786438424</v>
+        <v>1438.743819834922</v>
       </c>
       <c r="X28" t="n">
-        <v>950.281924298107</v>
+        <v>1200.399957694605</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.281924298107</v>
+        <v>975.6642590833701</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
       <c r="C29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
       <c r="D29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
       <c r="E29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606871</v>
@@ -6499,16 +6499,16 @@
         <v>1473.79753042052</v>
       </c>
       <c r="V29" t="n">
-        <v>1123.959975757</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W29" t="n">
-        <v>847.8014680960947</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="X29" t="n">
-        <v>847.8014680960947</v>
+        <v>1073.154132589472</v>
       </c>
       <c r="Y29" t="n">
-        <v>446.8647950441848</v>
+        <v>672.2174595375624</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>55.21992119155775</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>120.78975425671</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>264.5117467880015</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177894</v>
+        <v>476.5243313096588</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767574</v>
+        <v>731.7725490686269</v>
       </c>
       <c r="N30" t="n">
-        <v>1464.251520084358</v>
+        <v>999.6119288277761</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.446597132247</v>
+        <v>1235.633617581756</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1417.231939017938</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
@@ -6584,10 +6584,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.5798093843522</v>
+        <v>989.122794671898</v>
       </c>
       <c r="C31" t="n">
-        <v>40.48643694606871</v>
+        <v>818.0294222336145</v>
       </c>
       <c r="D31" t="n">
-        <v>40.48643694606871</v>
+        <v>658.5347775565244</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606871</v>
+        <v>497.6239624248439</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48643694606871</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G31" t="n">
-        <v>40.48643694606871</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H31" t="n">
-        <v>40.48643694606871</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K31" t="n">
-        <v>219.6034981877563</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L31" t="n">
-        <v>633.0972772623923</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M31" t="n">
-        <v>1084.307495648273</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.241722224319</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O31" t="n">
-        <v>1928.829063741821</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P31" t="n">
         <v>1998.558115949587</v>
@@ -6645,28 +6645,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1933.100012081648</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>1698.055137394961</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U31" t="n">
-        <v>1415.314486081552</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V31" t="n">
-        <v>1141.428741021074</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="W31" t="n">
-        <v>862.3590765299484</v>
+        <v>1227.466656812215</v>
       </c>
       <c r="X31" t="n">
-        <v>624.0152143896319</v>
+        <v>989.122794671898</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.2795157783966</v>
+        <v>989.122794671898</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>500.3768416212482</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="C32" t="n">
-        <v>90.25225093451832</v>
+        <v>1052.440019004669</v>
       </c>
       <c r="D32" t="n">
-        <v>40.48643694606871</v>
+        <v>647.97608909773</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606871</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F32" t="n">
         <v>40.48643694606871</v>
@@ -6697,7 +6697,7 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J32" t="n">
         <v>167.5334271492898</v>
@@ -6709,10 +6709,10 @@
         <v>641.1850750879076</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6727,25 +6727,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>1685.717213369037</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.717213369037</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W32" t="n">
-        <v>1301.956912504206</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="X32" t="n">
-        <v>901.3135146731581</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="Y32" t="n">
-        <v>500.3768416212482</v>
+        <v>1462.564609691399</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>371.816871914538</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K33" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L33" t="n">
-        <v>727.5514489674867</v>
+        <v>772.8901176787965</v>
       </c>
       <c r="M33" t="n">
-        <v>982.7996667264548</v>
+        <v>1028.138335437764</v>
       </c>
       <c r="N33" t="n">
-        <v>1250.639046485604</v>
+        <v>1295.977715196914</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.660735239583</v>
+        <v>1531.999403950893</v>
       </c>
       <c r="P33" t="n">
-        <v>1668.259056675766</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q33" t="n">
         <v>1918.251596225539</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.5798093843522</v>
+        <v>531.9852691931227</v>
       </c>
       <c r="C34" t="n">
-        <v>40.48643694606871</v>
+        <v>360.8918967548392</v>
       </c>
       <c r="D34" t="n">
-        <v>40.48643694606871</v>
+        <v>201.3972520777492</v>
       </c>
       <c r="E34" t="n">
         <v>40.48643694606871</v>
@@ -6858,52 +6858,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108421</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168145</v>
+        <v>750.6849613854781</v>
       </c>
       <c r="M34" t="n">
-        <v>1266.896543402695</v>
+        <v>856.9288302570732</v>
       </c>
       <c r="N34" t="n">
-        <v>1705.830769978741</v>
+        <v>1295.863056833119</v>
       </c>
       <c r="O34" t="n">
-        <v>1796.343352077502</v>
+        <v>1701.450398350621</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.300096062671</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T34" t="n">
-        <v>1621.255221375984</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U34" t="n">
-        <v>1338.514570062576</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V34" t="n">
-        <v>1141.428741021074</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W34" t="n">
-        <v>862.3590765299484</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="X34" t="n">
-        <v>624.0152143896319</v>
+        <v>788.408229662451</v>
       </c>
       <c r="Y34" t="n">
-        <v>399.2795157783966</v>
+        <v>563.6725310512157</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1572.823972794296</v>
+        <v>1357.228169979181</v>
       </c>
       <c r="C35" t="n">
-        <v>1162.699382107566</v>
+        <v>947.1035792924507</v>
       </c>
       <c r="D35" t="n">
-        <v>1162.699382107566</v>
+        <v>947.1035792924507</v>
       </c>
       <c r="E35" t="n">
-        <v>748.3591666244623</v>
+        <v>532.7633638093474</v>
       </c>
       <c r="F35" t="n">
-        <v>327.3287545781499</v>
+        <v>111.732951763035</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492897</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
         <v>953.2429319501302</v>
@@ -6961,28 +6961,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1983.045152458785</v>
+        <v>1767.44934964367</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505504</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902073</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K36" t="n">
-        <v>252.3026566214988</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L36" t="n">
-        <v>464.3152411431561</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M36" t="n">
-        <v>965.3348983507562</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N36" t="n">
-        <v>1466.354555558356</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O36" t="n">
-        <v>1723.446597132246</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.044918568429</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
         <v>1939.686028373151</v>
@@ -7058,10 +7058,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.9697860934967</v>
+        <v>284.60286656009</v>
       </c>
       <c r="C37" t="n">
-        <v>328.8764136552132</v>
+        <v>284.60286656009</v>
       </c>
       <c r="D37" t="n">
-        <v>205.1175628354774</v>
+        <v>125.1082218830001</v>
       </c>
       <c r="E37" t="n">
-        <v>205.1175628354774</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F37" t="n">
         <v>40.48643694606871</v>
@@ -7095,52 +7095,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L37" t="n">
-        <v>815.6863250168145</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M37" t="n">
-        <v>1029.170353416903</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N37" t="n">
-        <v>1136.070278545363</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062865</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P37" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104105</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104105</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T37" t="n">
-        <v>1986.445114104105</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U37" t="n">
-        <v>1703.704462790697</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V37" t="n">
-        <v>1429.818717730219</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W37" t="n">
-        <v>1150.749053239093</v>
+        <v>747.682427311642</v>
       </c>
       <c r="X37" t="n">
-        <v>912.4051910987764</v>
+        <v>509.3385651713253</v>
       </c>
       <c r="Y37" t="n">
-        <v>687.6694924875411</v>
+        <v>284.60286656009</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.981655162214</v>
+        <v>1271.329601214018</v>
       </c>
       <c r="C38" t="n">
-        <v>875.8570644754844</v>
+        <v>861.2050105272881</v>
       </c>
       <c r="D38" t="n">
-        <v>875.8570644754844</v>
+        <v>861.2050105272881</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606871</v>
@@ -7171,19 +7171,19 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746514</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K38" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879072</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576256</v>
@@ -7198,28 +7198,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>1812.402164354918</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>1812.402164354918</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V38" t="n">
-        <v>1696.202834826704</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W38" t="n">
-        <v>1696.202834826704</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X38" t="n">
-        <v>1696.202834826704</v>
+        <v>1541.946313197755</v>
       </c>
       <c r="Y38" t="n">
-        <v>1696.202834826704</v>
+        <v>1541.946313197755</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505504</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J39" t="n">
-        <v>352.2490680648406</v>
+        <v>108.5806640902073</v>
       </c>
       <c r="K39" t="n">
-        <v>495.9710605961321</v>
+        <v>609.6003212978077</v>
       </c>
       <c r="L39" t="n">
-        <v>707.9836451177894</v>
+        <v>964.3373108601501</v>
       </c>
       <c r="M39" t="n">
-        <v>986.4052511706673</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N39" t="n">
         <v>1487.424908378267</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.8465192928269</v>
+        <v>527.0881919207272</v>
       </c>
       <c r="C40" t="n">
-        <v>366.7531468545434</v>
+        <v>527.0881919207272</v>
       </c>
       <c r="D40" t="n">
-        <v>366.7531468545434</v>
+        <v>367.5935472436373</v>
       </c>
       <c r="E40" t="n">
-        <v>366.7531468545434</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F40" t="n">
-        <v>366.7531468545434</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G40" t="n">
-        <v>200.5568516886553</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H40" t="n">
-        <v>60.32126739029354</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
@@ -7335,49 +7335,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
-        <v>501.7072137817915</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M40" t="n">
-        <v>952.9174321676721</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N40" t="n">
-        <v>1391.851658743718</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O40" t="n">
-        <v>1541.657620062865</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1872.28415574375</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.321847303435</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1741.581195990027</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V40" t="n">
-        <v>1467.695450929549</v>
+        <v>1269.237417163405</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.625786438423</v>
+        <v>990.1677526722792</v>
       </c>
       <c r="X40" t="n">
-        <v>950.2819242981066</v>
+        <v>751.8238905319625</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.5462256868713</v>
+        <v>527.0881919207272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1230.340366774115</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="C41" t="n">
-        <v>820.2157760873851</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="D41" t="n">
-        <v>820.2157760873851</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E41" t="n">
-        <v>446.8647950441848</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.4864369460687</v>
       </c>
       <c r="I41" t="n">
         <v>44.64574590746552</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752961</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879074</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501302</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7435,28 +7435,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>1866.32721306535</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>1866.32721306535</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>1516.489658401831</v>
       </c>
       <c r="W41" t="n">
-        <v>1640.561546438604</v>
+        <v>1132.729357536999</v>
       </c>
       <c r="X41" t="n">
-        <v>1640.561546438604</v>
+        <v>1132.729357536999</v>
       </c>
       <c r="Y41" t="n">
-        <v>1640.561546438604</v>
+        <v>731.7926844850894</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090079</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579535</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773459</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.783244769674</v>
       </c>
       <c r="F42" t="n">
         <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.0905735269276</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.4864369460687</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505503</v>
       </c>
       <c r="J42" t="n">
-        <v>352.2490680648406</v>
+        <v>208.7594707336906</v>
       </c>
       <c r="K42" t="n">
-        <v>495.9710605961321</v>
+        <v>352.4814632649821</v>
       </c>
       <c r="L42" t="n">
-        <v>707.9836451177894</v>
+        <v>564.4940477866394</v>
       </c>
       <c r="M42" t="n">
-        <v>963.2318628767574</v>
+        <v>819.7422655456074</v>
       </c>
       <c r="N42" t="n">
-        <v>1231.071242635907</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O42" t="n">
-        <v>1467.092931389886</v>
+        <v>1323.603334058736</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.691252826069</v>
+        <v>1505.201655494919</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.221312702519</v>
       </c>
       <c r="R42" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.68602837315</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570316</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212509</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205543</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807645</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445945</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.1237555056924</v>
+        <v>359.5155919766103</v>
       </c>
       <c r="C43" t="n">
-        <v>373.1237555056924</v>
+        <v>359.5155919766103</v>
       </c>
       <c r="D43" t="n">
-        <v>373.1237555056924</v>
+        <v>341.632836376111</v>
       </c>
       <c r="E43" t="n">
-        <v>371.3138580013656</v>
+        <v>180.7220212444304</v>
       </c>
       <c r="F43" t="n">
-        <v>206.6827321119568</v>
+        <v>180.7220212444304</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606871</v>
+        <v>180.7220212444304</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.4864369460687</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.4864369460687</v>
       </c>
       <c r="J43" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304288</v>
       </c>
       <c r="K43" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>544.4047677997639</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M43" t="n">
-        <v>995.6149861856445</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N43" t="n">
-        <v>1434.549212761691</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O43" t="n">
-        <v>1840.136554279192</v>
+        <v>1541.657620062864</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.284155743749</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.300096062671</v>
+        <v>1856.30009606267</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.255221375984</v>
+        <v>1621.255221375983</v>
       </c>
       <c r="U43" t="n">
-        <v>1338.514570062576</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.628825002098</v>
+        <v>1064.628825002097</v>
       </c>
       <c r="W43" t="n">
-        <v>785.5591605109721</v>
+        <v>785.5591605109712</v>
       </c>
       <c r="X43" t="n">
-        <v>785.5591605109721</v>
+        <v>547.2152983706546</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.8234618997368</v>
+        <v>547.2152983706546</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>889.7873187231756</v>
+        <v>856.9893857309147</v>
       </c>
       <c r="C44" t="n">
-        <v>889.7873187231756</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="D44" t="n">
-        <v>889.7873187231756</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E44" t="n">
-        <v>475.4471032400724</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F44" t="n">
-        <v>475.4471032400724</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746565</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J44" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V44" t="n">
-        <v>1674.484292639917</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W44" t="n">
-        <v>1290.723991775086</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="X44" t="n">
-        <v>1290.723991775086</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="Y44" t="n">
-        <v>889.7873187231756</v>
+        <v>945.9730541635441</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D45" t="n">
         <v>434.2760607773473</v>
@@ -7718,34 +7718,34 @@
         <v>204.8233649521799</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505507</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K45" t="n">
-        <v>752.324726338493</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L45" t="n">
-        <v>964.3373108601503</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.585528619118</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N45" t="n">
-        <v>1487.424908378268</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O45" t="n">
-        <v>1723.446597132247</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P45" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q45" t="n">
         <v>2006.22131270252</v>
@@ -7760,10 +7760,10 @@
         <v>1785.412051570318</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V45" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W45" t="n">
         <v>1161.199263941873</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>703.3180455713295</v>
+        <v>322.4795997594202</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2246731330461</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="D46" t="n">
-        <v>532.2246731330461</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="E46" t="n">
-        <v>371.3138580013656</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F46" t="n">
         <v>206.6827321119568</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>337.1911823108422</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L46" t="n">
-        <v>750.6849613854782</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M46" t="n">
-        <v>1201.895179771359</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N46" t="n">
-        <v>1640.829406347405</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O46" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T46" t="n">
-        <v>1907.05272226853</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.05272226853</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>1633.166977208052</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W46" t="n">
-        <v>1354.097312716926</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X46" t="n">
-        <v>1115.753450576609</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0177519653739</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174887</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226675</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4.125845467326229</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>79.32734311265597</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.33532272952761</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>81.66010830944107</v>
+        <v>199.3688773843007</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18.88507653141523</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>66.36346275780019</v>
+        <v>98.25035392931832</v>
       </c>
       <c r="O13" t="n">
-        <v>75.40501809286232</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.33358167217304</v>
+        <v>199.9282760679553</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339691</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174889</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
-        <v>6.22858451822669</v>
+        <v>88.51736264450537</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952762</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>81.660108309441</v>
+        <v>62.07259322243168</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>69.42275263851178</v>
+        <v>178.0868137369347</v>
       </c>
       <c r="N16" t="n">
-        <v>66.36346275780011</v>
+        <v>175.8584291375</v>
       </c>
       <c r="O16" t="n">
-        <v>24.86734198576567</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.333581672173047</v>
+        <v>199.9282760679553</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339692</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.33241430959924</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="Q18" t="n">
-        <v>403.8820839126366</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>174.5064399028238</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>143.7878111760459</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>360.9067319962716</v>
+        <v>239.1776382754179</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>144.1660656976615</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>46.9569851494532</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659463</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>237.3980820842153</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>150.3193388037188</v>
       </c>
       <c r="O24" t="n">
-        <v>267.6747156097182</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>174.5064399028242</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>6.274496422708282</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>396.4490397881972</v>
+        <v>258.9430967094555</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>174.5064399028239</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>199.4818942380347</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12.33241430959869</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>23.40746292314103</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>23.93045033463827</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>291.9263360464071</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>104.5227037417905</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.3193388037196</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10515,19 +10515,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>6.27449642270831</v>
+        <v>229.6754195870704</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>248.2539792410427</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5356337863141</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>21.28318466657626</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>108.3233934631245</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>360.9067319962716</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>144.1660656976617</v>
       </c>
       <c r="M39" t="n">
-        <v>23.40746292314128</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5356337863141</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,13 +10995,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>59.89230224281371</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>23.93045033463853</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812962</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.0847972377573</v>
+        <v>403.8820839126363</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,16 +11229,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408882</v>
       </c>
       <c r="P43" t="n">
-        <v>89.58839339659417</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K45" t="n">
-        <v>258.9430967094553</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>316.6872253678868</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>199.4818942380351</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330.1711050654851</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>330.075481977503</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D11" t="n">
-        <v>333.5244130515518</v>
+        <v>180.8627331337738</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.7480150306399</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>298.6541171146935</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367296</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>216.0753719669003</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4184479242485</v>
+        <v>34.82213246243194</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.9794435190313</v>
+        <v>203.5418904982069</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -23351,13 +23351,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.4424218008434</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>65.42529764590962</v>
+        <v>10.28738507238769</v>
       </c>
       <c r="I12" t="n">
-        <v>4.09088792211929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>98.03537458961453</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
-        <v>79.87475435686012</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>128.4509916601372</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>135.626548934537</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>135.152973778675</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>143.2615417988903</v>
       </c>
       <c r="G13" t="n">
-        <v>165.1773242806354</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>144.5500124639718</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1365670983785</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.40922732593032</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S13" t="n">
-        <v>101.5992690287315</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.4938928757419</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>204.0004542924461</v>
+        <v>60.37960003122734</v>
       </c>
       <c r="V13" t="n">
-        <v>204.252010053555</v>
+        <v>51.59033013577707</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>2.931784151026733</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>324.4714278055106</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G14" t="n">
-        <v>336.8531374743218</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>298.6541171146935</v>
+        <v>74.00791599383146</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367296</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>113.5793406133823</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>216.0753719669003</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>178.4705851218891</v>
+        <v>60.99327411334437</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>303.9748350538237</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.95213950687135</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>56.70725773618433</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>39.78032340044207</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -23588,13 +23588,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.4424218008434</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
-        <v>65.42529764590962</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119293</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>98.03537458961453</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>155.8226171592196</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3458692164555</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
-        <v>144.6795341805783</v>
+        <v>73.09548817037563</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.1773242806354</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.5500124639718</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1365670983785</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.40922732593032</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S16" t="n">
-        <v>101.5992690287316</v>
+        <v>145.2311256418393</v>
       </c>
       <c r="T16" t="n">
-        <v>159.4938928757421</v>
+        <v>14.93269702790732</v>
       </c>
       <c r="U16" t="n">
-        <v>204.0004542924462</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V16" t="n">
-        <v>204.2520100535551</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>56.72241037211822</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>2.93178415102679</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>355.7509693609554</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>175.0215729442168</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0631073078666</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>88.2125163805712</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H20" t="n">
         <v>283.9738944557603</v>
@@ -24022,16 +24022,16 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T20" t="n">
-        <v>124.760903041521</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>53.38600077559516</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>113.5766634656296</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S22" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.15589258038628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>21.08170274882588</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>236.2694570636024</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.20687546859986</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.9994604414059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>219.7438157308934</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27.15045520650096</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>73.52706386206228</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.8960000694159</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>60.87475660731656</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>106.5257752718865</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>97.5862671229507</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>113.5298827261234</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>351.1511347593049</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>225.6021656239769</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>154.4523200905918</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>76.03191685878659</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>331.7805248483384</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>356.063378425187</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>35.37843591878062</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>75.52613989280171</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>138.2084230039449</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>231.3018428839519</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>64.16355990703357</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>36.22097251133732</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>40.57934209550405</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>53.38579822332804</v>
       </c>
       <c r="U41" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>140.1957701858248</v>
       </c>
       <c r="E43" t="n">
-        <v>157.5099084510802</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>83.80004204681616</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>318.0251361195415</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>255.6774093418317</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>54.74353974291188</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>116.5979921552626</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>202619.2276873488</v>
+        <v>320715.2333020277</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>202619.2276873487</v>
+        <v>320715.2333020276</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>556451.5850043227</v>
+        <v>556451.5850043225</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>556451.5850043227</v>
+        <v>556451.5850043225</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>556451.5850043223</v>
+        <v>556451.5850043225</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556451.5850043225</v>
+        <v>556451.5850043222</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556451.5850043225</v>
+        <v>556451.5850043223</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>38801.81820547023</v>
       </c>
       <c r="C2" t="n">
-        <v>38801.81820547023</v>
+        <v>38801.81820547024</v>
       </c>
       <c r="D2" t="n">
         <v>38801.81820547023</v>
       </c>
       <c r="E2" t="n">
-        <v>59164.26815904779</v>
+        <v>93378.59044281214</v>
       </c>
       <c r="F2" t="n">
-        <v>59164.26815904777</v>
+        <v>93378.59044281211</v>
       </c>
       <c r="G2" t="n">
         <v>161192.7346476189</v>
       </c>
       <c r="H2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
       <c r="I2" t="n">
         <v>161192.7346476189</v>
@@ -26340,22 +26340,22 @@
         <v>161192.7346476189</v>
       </c>
       <c r="K2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
       <c r="L2" t="n">
         <v>161192.734647619</v>
       </c>
       <c r="M2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.7346476188</v>
       </c>
       <c r="N2" t="n">
         <v>161192.7346476189</v>
       </c>
       <c r="O2" t="n">
+        <v>161192.734647619</v>
+      </c>
+      <c r="P2" t="n">
         <v>161192.7346476189</v>
-      </c>
-      <c r="P2" t="n">
-        <v>161192.734647619</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>201136.5313351992</v>
+        <v>343333.6099712362</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>395120.13282857</v>
+        <v>259644.2624814787</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179917</v>
+        <v>54714.37234877467</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>103511.8400876043</v>
+        <v>68952.26410615601</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>21826.02274057701</v>
       </c>
       <c r="E4" t="n">
-        <v>3005.680954864045</v>
+        <v>5752.879359012131</v>
       </c>
       <c r="F4" t="n">
-        <v>3005.680954864044</v>
+        <v>5752.879359012131</v>
       </c>
       <c r="G4" t="n">
+        <v>12864.9540078697</v>
+      </c>
+      <c r="H4" t="n">
         <v>12864.95400786971</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12864.9540078697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12864.95400786971</v>
       </c>
       <c r="J4" t="n">
         <v>12864.9540078697</v>
@@ -26447,7 +26447,7 @@
         <v>12864.9540078697</v>
       </c>
       <c r="L4" t="n">
-        <v>12864.95400786971</v>
+        <v>12864.9540078697</v>
       </c>
       <c r="M4" t="n">
         <v>12864.9540078697</v>
@@ -26456,7 +26456,7 @@
         <v>12864.9540078697</v>
       </c>
       <c r="O4" t="n">
-        <v>12864.9540078697</v>
+        <v>12864.95400786969</v>
       </c>
       <c r="P4" t="n">
         <v>12864.9540078697</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.071166703488</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703483</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="H5" t="n">
         <v>43385.32273194157</v>
@@ -26502,16 +26502,16 @@
         <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="O5" t="n">
+        <v>43385.32273194155</v>
+      </c>
+      <c r="P5" t="n">
         <v>43385.32273194157</v>
-      </c>
-      <c r="P5" t="n">
-        <v>43385.32273194158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="E6" t="n">
-        <v>-154438.0152977189</v>
+        <v>-277639.5567791215</v>
       </c>
       <c r="F6" t="n">
-        <v>46698.51603748024</v>
+        <v>65694.05319211472</v>
       </c>
       <c r="G6" t="n">
-        <v>-290177.6749207623</v>
+        <v>-155323.1739124481</v>
       </c>
       <c r="H6" t="n">
-        <v>104942.4579078076</v>
+        <v>104321.0885690307</v>
       </c>
       <c r="I6" t="n">
-        <v>104942.4579078076</v>
+        <v>104321.0885690305</v>
       </c>
       <c r="J6" t="n">
-        <v>104942.4579078076</v>
+        <v>104321.0885690308</v>
       </c>
       <c r="K6" t="n">
-        <v>104942.4579078076</v>
+        <v>104321.0885690307</v>
       </c>
       <c r="L6" t="n">
-        <v>104942.4579078077</v>
+        <v>104321.0885690307</v>
       </c>
       <c r="M6" t="n">
-        <v>86015.94670600844</v>
+        <v>49606.71622025596</v>
       </c>
       <c r="N6" t="n">
-        <v>104942.4579078077</v>
+        <v>104321.0885690307</v>
       </c>
       <c r="O6" t="n">
-        <v>1430.617820203399</v>
+        <v>35368.82446287475</v>
       </c>
       <c r="P6" t="n">
-        <v>104942.4579078077</v>
+        <v>104321.0885690307</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697262</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697262</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="G3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="H3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="I3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="J3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="K3" t="n">
         <v>578.6986538040984</v>
@@ -26779,7 +26779,7 @@
         <v>578.6986538040984</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040984</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235941</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="H4" t="n">
         <v>506.0804618258591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>506.080461825859</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
@@ -26822,16 +26822,16 @@
         <v>506.0804618258589</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="O4" t="n">
+        <v>506.0804618258587</v>
+      </c>
+      <c r="P4" t="n">
         <v>506.0804618258589</v>
-      </c>
-      <c r="P4" t="n">
-        <v>506.0804618258591</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697262</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5683277343724</v>
+        <v>232.9458346663363</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>430.1325990234997</v>
+        <v>286.5239043517628</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235938</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234998</v>
+        <v>286.5239043517626</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234997</v>
+        <v>286.5239043517628</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561852</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865659</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242461</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154946</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K11" t="n">
-        <v>113.5911978484098</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L11" t="n">
-        <v>140.9199253517521</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M11" t="n">
-        <v>156.800569316546</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N11" t="n">
-        <v>159.3377664580359</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792184</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913938</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411918</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297464</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045784</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709453</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0714388988364948</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.477789757961298</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731483</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I12" t="n">
-        <v>16.45021754384294</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177334</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K12" t="n">
-        <v>77.1525680651803</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L12" t="n">
-        <v>103.7411489819038</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0610277080008</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N12" t="n">
-        <v>124.2651528831009</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O12" t="n">
-        <v>113.6783377198532</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946927</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993692</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R12" t="n">
-        <v>29.66487637587779</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219717</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T12" t="n">
-        <v>1.925828015642248</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798014</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765555</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626105</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I13" t="n">
-        <v>12.0460183383386</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351247</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198525</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>59.55277627121809</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M13" t="n">
-        <v>62.79005266262768</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297875</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249352</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773174</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652866</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542402</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797787</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T13" t="n">
-        <v>1.711495954963464</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561849</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865657</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>34.4268518424246</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154945</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5911978484098</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L14" t="n">
-        <v>140.919925351752</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>156.800569316546</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N14" t="n">
-        <v>159.3377664580358</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792184</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913938</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411917</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297463</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045784</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709452</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649478</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612979</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731483</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384293</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177332</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518028</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>103.7411489819037</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080008</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N15" t="n">
-        <v>124.2651528831009</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O15" t="n">
-        <v>113.6783377198532</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946924</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.9894434899369</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R15" t="n">
-        <v>29.66487637587779</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219715</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>1.925828015642248</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798013</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765554</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626104</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I16" t="n">
-        <v>12.0460183383386</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351246</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198524</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>59.55277627121807</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262767</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297874</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O16" t="n">
-        <v>56.6177427824935</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773173</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652865</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542402</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797785</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963463</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0218488845314485</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,37 +32232,37 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I17" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J17" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L17" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M17" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N17" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O17" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P17" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R17" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S17" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T17" t="n">
         <v>10.18393309357765</v>
@@ -32311,7 +32311,7 @@
         <v>12.0216456195908</v>
       </c>
       <c r="I18" t="n">
-        <v>42.85645690907711</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J18" t="n">
         <v>117.601393411265</v>
@@ -32323,31 +32323,31 @@
         <v>270.2686495903009</v>
       </c>
       <c r="M18" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N18" t="n">
         <v>323.7382214332947</v>
       </c>
       <c r="O18" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P18" t="n">
         <v>237.69228291814</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R18" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S18" t="n">
         <v>23.12064904585241</v>
       </c>
       <c r="T18" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H19" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I19" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J19" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K19" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L19" t="n">
         <v>155.1481603985611</v>
@@ -32408,13 +32408,13 @@
         <v>159.6923678603999</v>
       </c>
       <c r="O19" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P19" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R19" t="n">
         <v>46.92202527401754</v>
@@ -32423,7 +32423,7 @@
         <v>18.18631671053207</v>
       </c>
       <c r="T19" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U19" t="n">
         <v>0.05692117906269827</v>
@@ -32469,37 +32469,37 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I20" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J20" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K20" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L20" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M20" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N20" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O20" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P20" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R20" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S20" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T20" t="n">
         <v>10.18393309357765</v>
@@ -32548,7 +32548,7 @@
         <v>12.0216456195908</v>
       </c>
       <c r="I21" t="n">
-        <v>42.85645690907711</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J21" t="n">
         <v>117.601393411265</v>
@@ -32560,31 +32560,31 @@
         <v>270.2686495903009</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N21" t="n">
         <v>323.7382214332947</v>
       </c>
       <c r="O21" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P21" t="n">
         <v>237.69228291814</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R21" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S21" t="n">
         <v>23.12064904585241</v>
       </c>
       <c r="T21" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H22" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I22" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J22" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K22" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L22" t="n">
         <v>155.1481603985611</v>
@@ -32645,13 +32645,13 @@
         <v>159.6923678603999</v>
       </c>
       <c r="O22" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P22" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R22" t="n">
         <v>46.92202527401754</v>
@@ -32660,7 +32660,7 @@
         <v>18.18631671053207</v>
       </c>
       <c r="T22" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U22" t="n">
         <v>0.05692117906269827</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H23" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I23" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J23" t="n">
         <v>197.4525622846457</v>
@@ -32715,16 +32715,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L23" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M23" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N23" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O23" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P23" t="n">
         <v>334.5430745340568</v>
@@ -32736,7 +32736,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S23" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T23" t="n">
         <v>10.18393309357765</v>
@@ -32782,10 +32782,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H24" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I24" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J24" t="n">
         <v>117.601393411265</v>
@@ -32794,34 +32794,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L24" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M24" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N24" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O24" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P24" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q24" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R24" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S24" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T24" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H25" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I25" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J25" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K25" t="n">
         <v>121.2421114035472</v>
@@ -32876,10 +32876,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M25" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N25" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O25" t="n">
         <v>147.5017486778054</v>
@@ -32888,19 +32888,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R25" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S25" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T25" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,37 +32943,37 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I26" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J26" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L26" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M26" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N26" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O26" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P26" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R26" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S26" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T26" t="n">
         <v>10.18393309357765</v>
@@ -33022,7 +33022,7 @@
         <v>12.0216456195908</v>
       </c>
       <c r="I27" t="n">
-        <v>42.85645690907711</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J27" t="n">
         <v>117.601393411265</v>
@@ -33034,31 +33034,31 @@
         <v>270.2686495903009</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N27" t="n">
         <v>323.7382214332947</v>
       </c>
       <c r="O27" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P27" t="n">
         <v>237.69228291814</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R27" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S27" t="n">
         <v>23.12064904585241</v>
       </c>
       <c r="T27" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H28" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I28" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J28" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K28" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L28" t="n">
         <v>155.1481603985611</v>
@@ -33119,13 +33119,13 @@
         <v>159.6923678603999</v>
       </c>
       <c r="O28" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P28" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R28" t="n">
         <v>46.92202527401754</v>
@@ -33134,7 +33134,7 @@
         <v>18.18631671053207</v>
       </c>
       <c r="T28" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U28" t="n">
         <v>0.05692117906269827</v>
@@ -34365,37 +34365,37 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R44" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34444,7 +34444,7 @@
         <v>12.0216456195908</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34456,31 +34456,31 @@
         <v>270.2686495903009</v>
       </c>
       <c r="M45" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N45" t="n">
         <v>323.7382214332947</v>
       </c>
       <c r="O45" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P45" t="n">
         <v>237.69228291814</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S45" t="n">
         <v>23.12064904585241</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I46" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L46" t="n">
         <v>155.1481603985611</v>
@@ -34541,13 +34541,13 @@
         <v>159.6923678603999</v>
       </c>
       <c r="O46" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P46" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R46" t="n">
         <v>46.92202527401754</v>
@@ -34556,7 +34556,7 @@
         <v>18.18631671053207</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U46" t="n">
         <v>0.05692117906269827</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241517</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519268</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890723</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950053</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N11" t="n">
-        <v>66.42547570141657</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343531</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050968</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967135</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.064174064522998</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056491</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105471</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958336</v>
+        <v>134.9968481589892</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935091</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985321</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666552</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098198</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.03241081642645</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.54459321251299</v>
+        <v>58.30544777956407</v>
       </c>
       <c r="K13" t="n">
-        <v>75.9478628023595</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316579</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M13" t="n">
-        <v>25.41018669526287</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N13" t="n">
-        <v>75.9478628023595</v>
+        <v>141.9484822659145</v>
       </c>
       <c r="O13" t="n">
-        <v>75.9478628023595</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>118.3986047832474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241503</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519265</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L14" t="n">
-        <v>45.4345272889072</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950051</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N14" t="n">
-        <v>66.42547570141652</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343528</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050965</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.39866293496712</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>107.4109679675859</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056488</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105468</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958333</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935088</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985318</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666549</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098183</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.03241081642643</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.54459321251299</v>
+        <v>58.30544777956406</v>
       </c>
       <c r="K16" t="n">
-        <v>75.94786280235941</v>
+        <v>82.26027331222713</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316565</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M16" t="n">
-        <v>75.94786280235941</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="N16" t="n">
-        <v>75.94786280235941</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="O16" t="n">
-        <v>25.41018669526284</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J17" t="n">
         <v>124.1289709513377</v>
@@ -35889,25 +35889,25 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L17" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M17" t="n">
         <v>315.2099564264878</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O17" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P17" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q17" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R17" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54989300907711</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J18" t="n">
-        <v>78.56456892086422</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K18" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L18" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M18" t="n">
         <v>257.8264825848162</v>
@@ -35977,13 +35977,13 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O18" t="n">
-        <v>238.4057462161409</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P18" t="n">
-        <v>183.4326479153363</v>
+        <v>353.5174451530935</v>
       </c>
       <c r="Q18" t="n">
-        <v>506.0804618258591</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R18" t="n">
         <v>107.1416677554515</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>22.34618924547858</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K19" t="n">
-        <v>277.3555737492421</v>
+        <v>243.4981817473041</v>
       </c>
       <c r="L19" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M19" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N19" t="n">
-        <v>251.7675335280264</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O19" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P19" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.5734258178642</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J20" t="n">
         <v>124.1289709513377</v>
@@ -36126,25 +36126,25 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L20" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M20" t="n">
         <v>315.2099564264878</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O20" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P20" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q20" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R20" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J21" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K21" t="n">
-        <v>506.080461825859</v>
+        <v>384.3513681050053</v>
       </c>
       <c r="L21" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M21" t="n">
-        <v>401.9925482824777</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N21" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O21" t="n">
-        <v>238.4057462161409</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P21" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.1983779132225</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R21" t="n">
-        <v>18.28336828375328</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.30317439493177</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K22" t="n">
-        <v>68.99174184448033</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L22" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M22" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N22" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O22" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P22" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650459</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.5734258178642</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J23" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K23" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L23" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M23" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O23" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R23" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54989300907711</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
@@ -36445,13 +36445,13 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
-        <v>495.2245646690316</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N24" t="n">
-        <v>270.5448280395447</v>
+        <v>420.8641668432635</v>
       </c>
       <c r="O24" t="n">
-        <v>506.0804618258591</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153363</v>
@@ -36460,7 +36460,7 @@
         <v>102.1983779132225</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K25" t="n">
-        <v>243.4981817473045</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M25" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N25" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>409.6841833510116</v>
+        <v>91.42685060480906</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>76.70788249115962</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J26" t="n">
         <v>124.1289709513377</v>
@@ -36600,25 +36600,25 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L26" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M26" t="n">
         <v>315.2099564264878</v>
       </c>
       <c r="N26" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O26" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P26" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q26" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R26" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J27" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M27" t="n">
         <v>257.8264825848162</v>
@@ -36688,16 +36688,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O27" t="n">
-        <v>238.4057462161409</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P27" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>498.6474177014196</v>
+        <v>361.1414746226779</v>
       </c>
       <c r="R27" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.34618924547858</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594753</v>
+        <v>281.8234791670613</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
-        <v>269.915280306486</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.02397106449331</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>315.2099564264878</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O29" t="n">
         <v>298.7869592732532</v>
@@ -36852,7 +36852,7 @@
         <v>240.8937112531725</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R29" t="n">
         <v>58.82526145471046</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>14.88230731867579</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
@@ -36922,19 +36922,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
-        <v>261.8132091392819</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P30" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K31" t="n">
-        <v>92.92219217911857</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
@@ -37007,7 +37007,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
-        <v>70.43338606845131</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q31" t="n">
         <v>26.0239710644933</v>
@@ -37147,13 +37147,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K33" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
-        <v>214.1541257794518</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="M33" t="n">
         <v>257.8264825848162</v>
@@ -37165,10 +37165,10 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P33" t="n">
-        <v>183.4326479153362</v>
+        <v>287.9553516571267</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.517716716942</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R33" t="n">
         <v>107.1416677554515</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K34" t="n">
         <v>277.3555737492421</v>
@@ -37235,19 +37235,19 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>76.70788249115962</v>
+        <v>300.1088056555217</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126495</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37393,19 +37393,19 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M36" t="n">
-        <v>506.0804618258588</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N36" t="n">
-        <v>506.0804618258588</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
-        <v>259.6889308827171</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P36" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R36" t="n">
         <v>18.28336828375327</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M37" t="n">
-        <v>215.6404327273619</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J39" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1737298295874</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="L39" t="n">
-        <v>214.1541257794518</v>
+        <v>358.3201914771136</v>
       </c>
       <c r="M39" t="n">
-        <v>281.2339455079575</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>506.0804618258588</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
         <v>238.4057462161408</v>
@@ -37703,10 +37703,10 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L40" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37715,13 +37715,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O40" t="n">
-        <v>151.3191528476227</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.5734258178641</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J42" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925612</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37879,10 +37879,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>272.2831751509797</v>
+        <v>506.0804618258587</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
         <v>417.6704839137738</v>
@@ -37949,16 +37949,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510115</v>
+        <v>169.5567187188978</v>
       </c>
       <c r="P43" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J44" t="n">
         <v>124.1289709513377</v>
@@ -38022,25 +38022,25 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M44" t="n">
         <v>315.2099564264878</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q44" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.54989300907711</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J45" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K45" t="n">
-        <v>404.1168265390427</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M45" t="n">
         <v>257.8264825848162</v>
@@ -38110,16 +38110,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375328</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547858</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>424.0042646321241</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
-        <v>290.9087448428441</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
